--- a/df_feijao.xlsx
+++ b/df_feijao.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dcc-fellowship-ciencia-de-dados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144B5E72-333A-4949-B5AA-8BFDDB6764B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="4">
   <si>
     <t>Ano</t>
   </si>
@@ -25,14 +41,14 @@
     <t>Produçao</t>
   </si>
   <si>
-    <t>Feijão (em grão)</t>
+    <t>Feijão</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,11 +111,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -141,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -173,9 +197,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,6 +249,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,680 +442,625 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>141</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1974</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>2238012</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>142</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1975</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>2282466</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>143</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1976</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>1840315</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>144</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1977</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>2290007</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>145</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1978</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>2193977</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>146</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1979</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>2186343</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>147</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1980</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>1968165</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>148</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>1981</v>
       </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>2340947</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>149</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>1982</v>
       </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>2902657</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>150</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>1983</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>1580546</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>151</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>1984</v>
       </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>2625676</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>152</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>1985</v>
       </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>2548738</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>153</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>1986</v>
       </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>2209188</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>154</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>1987</v>
       </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>2007230</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>155</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>1988</v>
       </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>2808639</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>156</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>1989</v>
       </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>2310546</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>157</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>1990</v>
       </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>2234467</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>158</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>1991</v>
       </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>2744711</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>159</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>1992</v>
       </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>2797138</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>160</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>1993</v>
       </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>2478325</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>161</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>1994</v>
       </c>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
         <v>3369684</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>162</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>1995</v>
       </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
         <v>2946168</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>163</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>1996</v>
       </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
         <v>2452036</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>164</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>1997</v>
       </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25">
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
         <v>2840243</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>165</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>1998</v>
       </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26">
         <v>2191153</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>166</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>1999</v>
       </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
         <v>2830915</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>167</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>2000</v>
       </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
         <v>3056289</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>168</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>2001</v>
       </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
         <v>2453681</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>169</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>2002</v>
       </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30">
         <v>3064228</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>170</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>2003</v>
       </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31">
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31">
         <v>3302038</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>171</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>2004</v>
       </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32">
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
         <v>2967007</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>172</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>2005</v>
       </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33">
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
         <v>3021641</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>173</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>2006</v>
       </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34">
         <v>3457744</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>174</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>2007</v>
       </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35">
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35">
         <v>3169356</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>175</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>2008</v>
       </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36">
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
         <v>3461194</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>176</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>2009</v>
       </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
         <v>3486763</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>177</v>
-      </c>
-      <c r="B38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>2010</v>
       </c>
-      <c r="C38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38">
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38">
         <v>3158905</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>178</v>
-      </c>
-      <c r="B39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>2011</v>
       </c>
-      <c r="C39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39">
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
         <v>3435366</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <v>179</v>
-      </c>
-      <c r="B40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>2012</v>
       </c>
-      <c r="C40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40">
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40">
         <v>2794854</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1">
-        <v>180</v>
-      </c>
-      <c r="B41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>2013</v>
       </c>
-      <c r="C41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41">
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41">
         <v>2892599</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
-        <v>181</v>
-      </c>
-      <c r="B42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>2014</v>
       </c>
-      <c r="C42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42">
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42">
         <v>3294586</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1">
-        <v>182</v>
-      </c>
-      <c r="B43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>2015</v>
       </c>
-      <c r="C43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43">
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43">
         <v>3088926</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1">
-        <v>183</v>
-      </c>
-      <c r="B44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>2016</v>
       </c>
-      <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44">
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
         <v>2621267</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1">
-        <v>184</v>
-      </c>
-      <c r="B45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>2017</v>
       </c>
-      <c r="C45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45">
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45">
         <v>3046079</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1">
-        <v>185</v>
-      </c>
-      <c r="B46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>2018</v>
       </c>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46">
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46">
         <v>2916365</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1">
-        <v>186</v>
-      </c>
-      <c r="B47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>2019</v>
       </c>
-      <c r="C47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47">
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
         <v>2908075</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1">
-        <v>187</v>
-      </c>
-      <c r="B48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>2020</v>
       </c>
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48">
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48">
         <v>3035290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2021</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2022</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2023</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2024</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2025</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2026</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2027</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2028</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2029</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2030</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
